--- a/customer_orders_dashboard.xlsx
+++ b/customer_orders_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Dona Data Analysis course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5482B054-ABC6-E042-8CA1-066A80BEBB87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30F178-9D1B-EF43-A16A-01C26959FAC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{FE24DA5F-C78A-044A-ACF1-32D9D0E698D7}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId7"/>
-    <pivotCache cacheId="59" r:id="rId8"/>
+    <pivotCache cacheId="63" r:id="rId7"/>
+    <pivotCache cacheId="64" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -405,14 +405,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7886,8 +7887,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Customer Name">
@@ -7910,7 +7911,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7964,8 +7965,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Month">
@@ -7988,7 +7989,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8042,8 +8043,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="City">
@@ -8066,7 +8067,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8570,7 +8571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9F8AFC4-242A-014E-B902-78DB5276996E}" name="PivotTable8" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9F8AFC4-242A-014E-B902-78DB5276996E}" name="PivotTable8" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8660,7 +8661,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E0B961-6576-234E-9F69-C052799B871F}" name="PivotTable9" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E0B961-6576-234E-9F69-C052799B871F}" name="PivotTable9" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8730,7 +8731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EE0D26A-4FF3-0046-8529-C5B1170B5D86}" name="PivotTable19" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EE0D26A-4FF3-0046-8529-C5B1170B5D86}" name="PivotTable19" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -8822,7 +8823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3990C662-F729-D64E-ADB9-CD18BF6352F7}" name="PivotTable20" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3990C662-F729-D64E-ADB9-CD18BF6352F7}" name="PivotTable20" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -10094,10 +10095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3168DB-0BB1-414A-BF3C-4182C2112FEF}">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10109,53 +10110,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f>SUM(Table1[Total Price])</f>
         <v>2815</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>COUNT(Table1[Quantity])</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/customer_orders_dashboard.xlsx
+++ b/customer_orders_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Dona Data Analysis course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30F178-9D1B-EF43-A16A-01C26959FAC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD1302-F228-1A45-9C98-6E5BD2E14D32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{FE24DA5F-C78A-044A-ACF1-32D9D0E698D7}"/>
+    <workbookView xWindow="3480" yWindow="2560" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{FE24DA5F-C78A-044A-ACF1-32D9D0E698D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Total revenue by customer" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId7"/>
-    <pivotCache cacheId="64" r:id="rId8"/>
+    <pivotCache cacheId="77" r:id="rId7"/>
+    <pivotCache cacheId="78" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -132,9 +132,6 @@
     <t>Sum of Total Price</t>
   </si>
   <si>
-    <t>Sum of Quantity</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>January</t>
+  </si>
+  <si>
+    <t>Count of Quantity</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1350,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8571,7 +8571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9F8AFC4-242A-014E-B902-78DB5276996E}" name="PivotTable8" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9F8AFC4-242A-014E-B902-78DB5276996E}" name="PivotTable8" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8661,7 +8661,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E0B961-6576-234E-9F69-C052799B871F}" name="PivotTable9" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18E0B961-6576-234E-9F69-C052799B871F}" name="PivotTable9" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8705,7 +8705,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Quantity" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Count of Quantity" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -8731,7 +8731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EE0D26A-4FF3-0046-8529-C5B1170B5D86}" name="PivotTable19" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0EE0D26A-4FF3-0046-8529-C5B1170B5D86}" name="PivotTable19" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -8823,7 +8823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3990C662-F729-D64E-ADB9-CD18BF6352F7}" name="PivotTable20" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3990C662-F729-D64E-ADB9-CD18BF6352F7}" name="PivotTable20" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9576,14 +9576,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432CCDA-7182-AB47-B4DB-F801E8D4D97D}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9607,7 +9607,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9631,7 +9631,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>400</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <v>2240</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>50</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>25</v>
@@ -9792,7 +9792,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9818,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>3</v>
@@ -10097,7 +10097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3168DB-0BB1-414A-BF3C-4182C2112FEF}">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -10111,14 +10111,14 @@
   <sheetData>
     <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18">
         <f>SUM(Table1[Total Price])</f>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="5" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>7</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="7" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="18">
         <f>COUNT(Table1[Quantity])</f>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="8" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>9</v>
